--- a/data/pca/factorExposure/factorExposure_2009-09-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01753068418933913</v>
+        <v>0.01695381733353812</v>
       </c>
       <c r="C2">
-        <v>-0.001566600799855311</v>
+        <v>0.0009368471210525634</v>
       </c>
       <c r="D2">
-        <v>0.0002932748014311474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008598100435257638</v>
+      </c>
+      <c r="E2">
+        <v>0.001681330025492626</v>
+      </c>
+      <c r="F2">
+        <v>-0.01245372250884754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09934711541115492</v>
+        <v>0.09388142999482985</v>
       </c>
       <c r="C4">
-        <v>-0.02092507902145445</v>
+        <v>0.0144423240761119</v>
       </c>
       <c r="D4">
-        <v>-0.06953514421439716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08393009135569754</v>
+      </c>
+      <c r="E4">
+        <v>0.02886840410641347</v>
+      </c>
+      <c r="F4">
+        <v>0.03219977739791616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.140591739081801</v>
+        <v>0.1586959872514335</v>
       </c>
       <c r="C6">
-        <v>-0.02569720819248022</v>
+        <v>0.02641055611854571</v>
       </c>
       <c r="D6">
-        <v>0.02065140473581408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02306422618581964</v>
+      </c>
+      <c r="E6">
+        <v>0.01035215186451414</v>
+      </c>
+      <c r="F6">
+        <v>0.04339681907822706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06677972562319057</v>
+        <v>0.06353624045051168</v>
       </c>
       <c r="C7">
-        <v>-0.003371491054466645</v>
+        <v>-0.001699131269978642</v>
       </c>
       <c r="D7">
-        <v>-0.0375529456604772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05238147895643139</v>
+      </c>
+      <c r="E7">
+        <v>0.01202436593573362</v>
+      </c>
+      <c r="F7">
+        <v>0.04745706823269349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06367866677150621</v>
+        <v>0.05748244031935792</v>
       </c>
       <c r="C8">
-        <v>0.01013513117787298</v>
+        <v>-0.01333642603550619</v>
       </c>
       <c r="D8">
-        <v>-0.01628272037638448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03248651111251361</v>
+      </c>
+      <c r="E8">
+        <v>0.01779930486240102</v>
+      </c>
+      <c r="F8">
+        <v>-0.0267830538226804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07649812188861402</v>
+        <v>0.07077168350777019</v>
       </c>
       <c r="C9">
-        <v>-0.01780689162042669</v>
+        <v>0.01015611040104859</v>
       </c>
       <c r="D9">
-        <v>-0.06727749838839331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08700232771878236</v>
+      </c>
+      <c r="E9">
+        <v>0.02323458848628903</v>
+      </c>
+      <c r="F9">
+        <v>0.04777214771479659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08735032412894102</v>
+        <v>0.09199776356723222</v>
       </c>
       <c r="C10">
-        <v>-0.008364293355315359</v>
+        <v>0.02106676138744613</v>
       </c>
       <c r="D10">
-        <v>0.1701173179131697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1646977889270719</v>
+      </c>
+      <c r="E10">
+        <v>-0.0327194486260726</v>
+      </c>
+      <c r="F10">
+        <v>-0.05489330646718155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09288810592172589</v>
+        <v>0.08799641406418883</v>
       </c>
       <c r="C11">
-        <v>-0.01814305801360747</v>
+        <v>0.01021297762309563</v>
       </c>
       <c r="D11">
-        <v>-0.09838465945534298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169810993738876</v>
+      </c>
+      <c r="E11">
+        <v>0.04589306530077948</v>
+      </c>
+      <c r="F11">
+        <v>0.02300617047884867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09935462217677522</v>
+        <v>0.09217731435317787</v>
       </c>
       <c r="C12">
-        <v>-0.01660662543471679</v>
+        <v>0.007633232703680033</v>
       </c>
       <c r="D12">
-        <v>-0.09697152133228289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320359403043895</v>
+      </c>
+      <c r="E12">
+        <v>0.04636397752103884</v>
+      </c>
+      <c r="F12">
+        <v>0.02911861082628072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04138160906500011</v>
+        <v>0.04151854983489059</v>
       </c>
       <c r="C13">
-        <v>-0.006368500084897754</v>
+        <v>0.00233210299333731</v>
       </c>
       <c r="D13">
-        <v>-0.03492638496327424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05417629710745626</v>
+      </c>
+      <c r="E13">
+        <v>-0.004509394514432919</v>
+      </c>
+      <c r="F13">
+        <v>0.002261417547176626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02058823835048876</v>
+        <v>0.02411285276557553</v>
       </c>
       <c r="C14">
-        <v>-0.01561452523560614</v>
+        <v>0.01381920087330396</v>
       </c>
       <c r="D14">
-        <v>-0.02148072459726691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03277948862667907</v>
+      </c>
+      <c r="E14">
+        <v>0.01870534973954954</v>
+      </c>
+      <c r="F14">
+        <v>0.01360361542567281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03579000658997813</v>
+        <v>0.03280436011354463</v>
       </c>
       <c r="C15">
-        <v>-0.008080842271923135</v>
+        <v>0.004584499638262085</v>
       </c>
       <c r="D15">
-        <v>-0.02451805408464672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04482672577718305</v>
+      </c>
+      <c r="E15">
+        <v>0.005916002896631144</v>
+      </c>
+      <c r="F15">
+        <v>0.02497110205241603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07809595650745439</v>
+        <v>0.0741565889015964</v>
       </c>
       <c r="C16">
-        <v>-0.009702744613064751</v>
+        <v>0.0007958777492476129</v>
       </c>
       <c r="D16">
-        <v>-0.09691690790685475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276315525154617</v>
+      </c>
+      <c r="E16">
+        <v>0.06074919268518236</v>
+      </c>
+      <c r="F16">
+        <v>0.02687439142273117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006804317358974332</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.000166837524154405</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001121246904264492</v>
+      </c>
+      <c r="E17">
+        <v>0.0006544497468672319</v>
+      </c>
+      <c r="F17">
+        <v>-0.001174314805399932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.003716762729178287</v>
+        <v>0.03628657564555882</v>
       </c>
       <c r="C18">
-        <v>0.0009590655013122917</v>
+        <v>-0.003019017674817716</v>
       </c>
       <c r="D18">
-        <v>-0.003307223883857768</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01612858070997082</v>
+      </c>
+      <c r="E18">
+        <v>-0.00889340860160095</v>
+      </c>
+      <c r="F18">
+        <v>-0.009183231070197438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06048901597500271</v>
+        <v>0.0617833870731642</v>
       </c>
       <c r="C20">
-        <v>-0.007453545232071064</v>
+        <v>-8.378256947638152e-05</v>
       </c>
       <c r="D20">
-        <v>-0.04335801731874358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07822508404120822</v>
+      </c>
+      <c r="E20">
+        <v>0.05644175077201173</v>
+      </c>
+      <c r="F20">
+        <v>0.02606685003584682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04475469241255767</v>
+        <v>0.04071718579423875</v>
       </c>
       <c r="C21">
-        <v>-0.01042551509559621</v>
+        <v>0.006417124063293362</v>
       </c>
       <c r="D21">
-        <v>-0.01409049276074336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03788592294865744</v>
+      </c>
+      <c r="E21">
+        <v>-0.001983037920759267</v>
+      </c>
+      <c r="F21">
+        <v>-0.02395941497125831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03814985553237493</v>
+        <v>0.04313247515209122</v>
       </c>
       <c r="C22">
-        <v>-0.0004420809416057277</v>
+        <v>0.0003233612156378793</v>
       </c>
       <c r="D22">
-        <v>0.01576015967844632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007004096264551984</v>
+      </c>
+      <c r="E22">
+        <v>0.03511182534016556</v>
+      </c>
+      <c r="F22">
+        <v>-0.03638961985118815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03810971434898409</v>
+        <v>0.04310827317270593</v>
       </c>
       <c r="C23">
-        <v>-0.0004334522627642585</v>
+        <v>0.0003149280253020248</v>
       </c>
       <c r="D23">
-        <v>0.01574045162734562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007019599924996996</v>
+      </c>
+      <c r="E23">
+        <v>0.03529455613090064</v>
+      </c>
+      <c r="F23">
+        <v>-0.03635180469146541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08369477020282932</v>
+        <v>0.07976010303102674</v>
       </c>
       <c r="C24">
-        <v>-0.009814737765897441</v>
+        <v>0.001437982935494814</v>
       </c>
       <c r="D24">
-        <v>-0.1056930884356569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1214351956055322</v>
+      </c>
+      <c r="E24">
+        <v>0.04893298778761722</v>
+      </c>
+      <c r="F24">
+        <v>0.02722015599746138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09129684364612807</v>
+        <v>0.085275357080526</v>
       </c>
       <c r="C25">
-        <v>-0.01189504632345083</v>
+        <v>0.004202453772104471</v>
       </c>
       <c r="D25">
-        <v>-0.09012067873314315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096089611997188</v>
+      </c>
+      <c r="E25">
+        <v>0.03212990007329005</v>
+      </c>
+      <c r="F25">
+        <v>0.02744604174060072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05880410816856152</v>
+        <v>0.05893999874391337</v>
       </c>
       <c r="C26">
-        <v>-0.01830719430070394</v>
+        <v>0.0142990095904327</v>
       </c>
       <c r="D26">
-        <v>-0.012922971965473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.040861323081799</v>
+      </c>
+      <c r="E26">
+        <v>0.028591362483598</v>
+      </c>
+      <c r="F26">
+        <v>-0.007069954502597362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1378674080632433</v>
+        <v>0.1425623609892453</v>
       </c>
       <c r="C28">
-        <v>-0.0040122798527192</v>
+        <v>0.02237672087269255</v>
       </c>
       <c r="D28">
-        <v>0.2737964014790142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2611120488892025</v>
+      </c>
+      <c r="E28">
+        <v>-0.06695428306273861</v>
+      </c>
+      <c r="F28">
+        <v>0.007628928609642675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02624490719266663</v>
+        <v>0.02871923155367457</v>
       </c>
       <c r="C29">
-        <v>-0.01022798683759712</v>
+        <v>0.008697377539861556</v>
       </c>
       <c r="D29">
-        <v>-0.01744116647762579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0311577515479519</v>
+      </c>
+      <c r="E29">
+        <v>0.01391875352610475</v>
+      </c>
+      <c r="F29">
+        <v>-0.01313618975910718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0701915732797804</v>
+        <v>0.05856420429096452</v>
       </c>
       <c r="C30">
-        <v>-0.00998006586457123</v>
+        <v>0.00239659510398685</v>
       </c>
       <c r="D30">
-        <v>-0.07482272345556899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0894357064684745</v>
+      </c>
+      <c r="E30">
+        <v>0.01540417340543076</v>
+      </c>
+      <c r="F30">
+        <v>0.07759645555737497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0513172244814707</v>
+        <v>0.05111170754299427</v>
       </c>
       <c r="C31">
-        <v>-0.01674419517770635</v>
+        <v>0.01542485947630375</v>
       </c>
       <c r="D31">
-        <v>-0.02164548670937083</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02511192120613985</v>
+      </c>
+      <c r="E31">
+        <v>0.02886213624164245</v>
+      </c>
+      <c r="F31">
+        <v>-0.001100864106432964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04535432018588832</v>
+        <v>0.05115885342989513</v>
       </c>
       <c r="C32">
-        <v>-0.001825714713871767</v>
+        <v>-0.001966238568042045</v>
       </c>
       <c r="D32">
-        <v>-0.02188772435637964</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03647081240551554</v>
+      </c>
+      <c r="E32">
+        <v>0.03419012464489454</v>
+      </c>
+      <c r="F32">
+        <v>0.003764486711693922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09652582653186688</v>
+        <v>0.08900939679927114</v>
       </c>
       <c r="C33">
-        <v>-0.01440878641175067</v>
+        <v>0.006614836498345647</v>
       </c>
       <c r="D33">
-        <v>-0.08079953184981016</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1012592394773372</v>
+      </c>
+      <c r="E33">
+        <v>0.04350386337845273</v>
+      </c>
+      <c r="F33">
+        <v>0.03786773649158046</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07394443154924286</v>
+        <v>0.06777326745188982</v>
       </c>
       <c r="C34">
-        <v>-0.01656444751250837</v>
+        <v>0.009896625166798121</v>
       </c>
       <c r="D34">
-        <v>-0.0911549152138868</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1096780367987626</v>
+      </c>
+      <c r="E34">
+        <v>0.03450256676829005</v>
+      </c>
+      <c r="F34">
+        <v>0.03381817167167638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02298535377799471</v>
+        <v>0.02523536697181102</v>
       </c>
       <c r="C35">
-        <v>-0.002668757446979391</v>
+        <v>0.002523488990748691</v>
       </c>
       <c r="D35">
-        <v>-0.004057615044434762</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01149626228613691</v>
+      </c>
+      <c r="E35">
+        <v>0.01184834764152801</v>
+      </c>
+      <c r="F35">
+        <v>0.001349069285308043</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02025784238322349</v>
+        <v>0.02760610726064838</v>
       </c>
       <c r="C36">
-        <v>-0.009203303699802904</v>
+        <v>0.006779559261885254</v>
       </c>
       <c r="D36">
-        <v>-0.02627126872446794</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04000133676439618</v>
+      </c>
+      <c r="E36">
+        <v>0.01662435126824078</v>
+      </c>
+      <c r="F36">
+        <v>0.01577530780727816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0005083577101435453</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.000589016391963901</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.001870172384864859</v>
+      </c>
+      <c r="E37">
+        <v>-0.001280354110447421</v>
+      </c>
+      <c r="F37">
+        <v>0.0002475133259871024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006698819132197169</v>
+        <v>-0.0004382895618656551</v>
       </c>
       <c r="C38">
-        <v>7.320556797548327e-05</v>
+        <v>-0.0001133683450638107</v>
       </c>
       <c r="D38">
-        <v>-0.0001880369020461432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>3.384585755034171e-05</v>
+      </c>
+      <c r="E38">
+        <v>-0.0009890077307172695</v>
+      </c>
+      <c r="F38">
+        <v>0.000527563370607088</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1215517066568515</v>
+        <v>0.1040858223750058</v>
       </c>
       <c r="C39">
-        <v>-0.02536393175779806</v>
+        <v>0.01532923678639003</v>
       </c>
       <c r="D39">
-        <v>-0.1457118405245869</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1549633005169026</v>
+      </c>
+      <c r="E39">
+        <v>0.05962602563202972</v>
+      </c>
+      <c r="F39">
+        <v>0.0298553388457564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03393087055328682</v>
+        <v>0.04141816713112417</v>
       </c>
       <c r="C40">
-        <v>-0.009970089150763094</v>
+        <v>0.006993225672063137</v>
       </c>
       <c r="D40">
-        <v>0.007588351687487698</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03091738615862821</v>
+      </c>
+      <c r="E40">
+        <v>0.002046142174642611</v>
+      </c>
+      <c r="F40">
+        <v>-0.01559692930089231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02503536331694999</v>
+        <v>0.02795232635808566</v>
       </c>
       <c r="C41">
-        <v>-0.007564363716433579</v>
+        <v>0.006854301486078222</v>
       </c>
       <c r="D41">
-        <v>-0.007807659554441903</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01100258264331593</v>
+      </c>
+      <c r="E41">
+        <v>0.01239745449843042</v>
+      </c>
+      <c r="F41">
+        <v>-0.005839804010923315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03943748433847688</v>
+        <v>0.04073910556479458</v>
       </c>
       <c r="C43">
-        <v>-0.008543715760331232</v>
+        <v>0.007021420133729362</v>
       </c>
       <c r="D43">
-        <v>-0.008078289233930521</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01901944417673556</v>
+      </c>
+      <c r="E43">
+        <v>0.02535119731283471</v>
+      </c>
+      <c r="F43">
+        <v>-0.01225899040203032</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08006086169343944</v>
+        <v>0.07915190452320345</v>
       </c>
       <c r="C44">
-        <v>-0.02787269424349762</v>
+        <v>0.01906989377779167</v>
       </c>
       <c r="D44">
-        <v>-0.07318255320570646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09759485623584788</v>
+      </c>
+      <c r="E44">
+        <v>0.06130581863559617</v>
+      </c>
+      <c r="F44">
+        <v>0.1565319521707197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01864095256462734</v>
+        <v>0.02335208646971025</v>
       </c>
       <c r="C46">
-        <v>-0.004019247830989832</v>
+        <v>0.003255606477817887</v>
       </c>
       <c r="D46">
-        <v>0.001836703581956084</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01346086941230203</v>
+      </c>
+      <c r="E46">
+        <v>0.02623965869048828</v>
+      </c>
+      <c r="F46">
+        <v>-0.005716823453951411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05283729683688268</v>
+        <v>0.05264895891650223</v>
       </c>
       <c r="C47">
-        <v>-0.00419829122033639</v>
+        <v>0.003509724007653123</v>
       </c>
       <c r="D47">
-        <v>-0.004592298774778421</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01294401889835258</v>
+      </c>
+      <c r="E47">
+        <v>0.02354393667572354</v>
+      </c>
+      <c r="F47">
+        <v>-0.03169781215399401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04679520553645755</v>
+        <v>0.05025804074211963</v>
       </c>
       <c r="C48">
-        <v>-0.00600476417819742</v>
+        <v>0.002109726112776832</v>
       </c>
       <c r="D48">
-        <v>-0.03651448203340885</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05050480158472261</v>
+      </c>
+      <c r="E48">
+        <v>-0.004738723784697442</v>
+      </c>
+      <c r="F48">
+        <v>0.01004255479698107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2017400417506097</v>
+        <v>0.2001142964821478</v>
       </c>
       <c r="C49">
-        <v>-0.01755151622224147</v>
+        <v>0.01873537961292082</v>
       </c>
       <c r="D49">
-        <v>0.005552395271067444</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006703126823772467</v>
+      </c>
+      <c r="E49">
+        <v>0.03074284770813244</v>
+      </c>
+      <c r="F49">
+        <v>0.03699460046212255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05065164244197649</v>
+        <v>0.05123671577796324</v>
       </c>
       <c r="C50">
-        <v>-0.01287263991953167</v>
+        <v>0.01109161895970609</v>
       </c>
       <c r="D50">
-        <v>-0.02091181917734269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02468025641361482</v>
+      </c>
+      <c r="E50">
+        <v>0.03011773471068967</v>
+      </c>
+      <c r="F50">
+        <v>0.009666485840921411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1570856628270067</v>
+        <v>0.148240790714563</v>
       </c>
       <c r="C52">
-        <v>-0.01778195712406527</v>
+        <v>0.01706221053331751</v>
       </c>
       <c r="D52">
-        <v>-0.06155663570356087</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04280562847851236</v>
+      </c>
+      <c r="E52">
+        <v>0.02013925034658505</v>
+      </c>
+      <c r="F52">
+        <v>0.04401346863182806</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1701298784848577</v>
+        <v>0.1713096218547811</v>
       </c>
       <c r="C53">
-        <v>-0.01691675877778308</v>
+        <v>0.01968652357912107</v>
       </c>
       <c r="D53">
-        <v>-0.02959689974253016</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005176118898817716</v>
+      </c>
+      <c r="E53">
+        <v>0.02842449727250802</v>
+      </c>
+      <c r="F53">
+        <v>0.07517964611298412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02093476760358546</v>
+        <v>0.020769712523211</v>
       </c>
       <c r="C54">
-        <v>-0.01297025632383848</v>
+        <v>0.01134179183194979</v>
       </c>
       <c r="D54">
-        <v>-0.02357442882644082</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03412107085102378</v>
+      </c>
+      <c r="E54">
+        <v>0.02176532724795552</v>
+      </c>
+      <c r="F54">
+        <v>-0.005194725808306639</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1172353111359903</v>
+        <v>0.1146372024517738</v>
       </c>
       <c r="C55">
-        <v>-0.01570190910231447</v>
+        <v>0.01738051707819276</v>
       </c>
       <c r="D55">
-        <v>-0.02453426738597071</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007635253174155562</v>
+      </c>
+      <c r="E55">
+        <v>0.02374269285321842</v>
+      </c>
+      <c r="F55">
+        <v>0.04776458433530938</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1743534951242914</v>
+        <v>0.1770461047194342</v>
       </c>
       <c r="C56">
-        <v>-0.01518185844708076</v>
+        <v>0.0175364233773575</v>
       </c>
       <c r="D56">
-        <v>-0.01116695678733234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00172998537225325</v>
+      </c>
+      <c r="E56">
+        <v>0.03347273422634445</v>
+      </c>
+      <c r="F56">
+        <v>0.05273040994401672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04279266517341453</v>
+        <v>0.04489819534303525</v>
       </c>
       <c r="C58">
-        <v>-0.007182527815895891</v>
+        <v>-0.0004849481899635032</v>
       </c>
       <c r="D58">
-        <v>-0.04644780710385046</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07178915471115531</v>
+      </c>
+      <c r="E58">
+        <v>0.0322878970009635</v>
+      </c>
+      <c r="F58">
+        <v>-0.03844277563446197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1682403685977817</v>
+        <v>0.1680267538853816</v>
       </c>
       <c r="C59">
-        <v>-0.005655257453907398</v>
+        <v>0.02251963305258478</v>
       </c>
       <c r="D59">
-        <v>0.220397633157051</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2168698851910526</v>
+      </c>
+      <c r="E59">
+        <v>-0.04580599796277995</v>
+      </c>
+      <c r="F59">
+        <v>-0.03600757274546238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.241784070984298</v>
+        <v>0.2318415288290611</v>
       </c>
       <c r="C60">
-        <v>0.002094719936165394</v>
+        <v>-0.002416758027954126</v>
       </c>
       <c r="D60">
-        <v>-0.06597301341495843</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04129351299884713</v>
+      </c>
+      <c r="E60">
+        <v>0.009161084552452599</v>
+      </c>
+      <c r="F60">
+        <v>-0.005299606012342562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09244381340794315</v>
+        <v>0.08022424482692379</v>
       </c>
       <c r="C61">
-        <v>-0.01863092610891017</v>
+        <v>0.01106552224677462</v>
       </c>
       <c r="D61">
-        <v>-0.09904012582214863</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1178445482907563</v>
+      </c>
+      <c r="E61">
+        <v>0.03945326467283393</v>
+      </c>
+      <c r="F61">
+        <v>0.01349494908316385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1718649932794268</v>
+        <v>0.1696344968468466</v>
       </c>
       <c r="C62">
-        <v>-0.01852602870761506</v>
+        <v>0.02055250929150191</v>
       </c>
       <c r="D62">
-        <v>-0.01521575375846682</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005769009659016481</v>
+      </c>
+      <c r="E62">
+        <v>0.03368428804458642</v>
+      </c>
+      <c r="F62">
+        <v>0.03630866584942145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04526030959127336</v>
+        <v>0.04573712610430561</v>
       </c>
       <c r="C63">
-        <v>-0.006706370875518094</v>
+        <v>0.001608666942502502</v>
       </c>
       <c r="D63">
-        <v>-0.04088811041350077</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05916573494854292</v>
+      </c>
+      <c r="E63">
+        <v>0.02337151367777011</v>
+      </c>
+      <c r="F63">
+        <v>0.003530756711590945</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1032318992023852</v>
+        <v>0.1103674513649224</v>
       </c>
       <c r="C64">
-        <v>-0.01488301319419764</v>
+        <v>0.01130274035624166</v>
       </c>
       <c r="D64">
-        <v>-0.02058934913559714</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04309835187352281</v>
+      </c>
+      <c r="E64">
+        <v>0.02228761497983108</v>
+      </c>
+      <c r="F64">
+        <v>0.02517264780504127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1364405207279174</v>
+        <v>0.1501026159979827</v>
       </c>
       <c r="C65">
-        <v>-0.03083527282283294</v>
+        <v>0.03387873128039584</v>
       </c>
       <c r="D65">
-        <v>0.04068781241191027</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04360383814379486</v>
+      </c>
+      <c r="E65">
+        <v>0.006422719978800215</v>
+      </c>
+      <c r="F65">
+        <v>0.03833538222765393</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1475124049381816</v>
+        <v>0.1236637574102037</v>
       </c>
       <c r="C66">
-        <v>-0.02206758483168916</v>
+        <v>0.01324490320079778</v>
       </c>
       <c r="D66">
-        <v>-0.1272752391088807</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1434062013237579</v>
+      </c>
+      <c r="E66">
+        <v>0.06574843175537091</v>
+      </c>
+      <c r="F66">
+        <v>0.03410934687976199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06330906359980325</v>
+        <v>0.05753013213910618</v>
       </c>
       <c r="C67">
-        <v>-0.005851615270484788</v>
+        <v>0.0027500820254484</v>
       </c>
       <c r="D67">
-        <v>-0.05925078379503348</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05613796237998747</v>
+      </c>
+      <c r="E67">
+        <v>0.0167195636903586</v>
+      </c>
+      <c r="F67">
+        <v>-0.03148625987320849</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1100626214556881</v>
+        <v>0.1164918284758394</v>
       </c>
       <c r="C68">
-        <v>-0.01384291996435998</v>
+        <v>0.03300945790465173</v>
       </c>
       <c r="D68">
-        <v>0.267258628078455</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609687169140427</v>
+      </c>
+      <c r="E68">
+        <v>-0.08713153892547186</v>
+      </c>
+      <c r="F68">
+        <v>0.003260200218224163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04107075621009403</v>
+        <v>0.03924187006919536</v>
       </c>
       <c r="C69">
-        <v>-0.000812790267715858</v>
+        <v>0.001141778068146383</v>
       </c>
       <c r="D69">
-        <v>-0.01114139101784129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008601223118805562</v>
+      </c>
+      <c r="E69">
+        <v>0.0241510324093222</v>
+      </c>
+      <c r="F69">
+        <v>0.0007880841422185977</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0647160367482827</v>
+        <v>0.06685172778253375</v>
       </c>
       <c r="C70">
-        <v>0.02378388096052002</v>
+        <v>-0.0274556419499211</v>
       </c>
       <c r="D70">
-        <v>0.02423402539638919</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02349523417410913</v>
+      </c>
+      <c r="E70">
+        <v>-0.03318325993141365</v>
+      </c>
+      <c r="F70">
+        <v>-0.1854315409654361</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.124842019185732</v>
+        <v>0.1364127503889183</v>
       </c>
       <c r="C71">
-        <v>-0.01762110587928235</v>
+        <v>0.03738959515502249</v>
       </c>
       <c r="D71">
-        <v>0.2872978094796999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2722904674616888</v>
+      </c>
+      <c r="E71">
+        <v>-0.09744922083740402</v>
+      </c>
+      <c r="F71">
+        <v>0.008797603352969457</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1368141771872572</v>
+        <v>0.1427195121884066</v>
       </c>
       <c r="C72">
-        <v>-0.02563276087681475</v>
+        <v>0.0271985178439439</v>
       </c>
       <c r="D72">
-        <v>-0.006590711865193059</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00352382413702938</v>
+      </c>
+      <c r="E72">
+        <v>0.03585348980452952</v>
+      </c>
+      <c r="F72">
+        <v>0.03238315525222548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1990469263728253</v>
+        <v>0.2040904682767</v>
       </c>
       <c r="C73">
-        <v>-0.01377769233932664</v>
+        <v>0.01272682838866812</v>
       </c>
       <c r="D73">
-        <v>-0.02512046461005244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01746353574461237</v>
+      </c>
+      <c r="E73">
+        <v>0.06324455396814693</v>
+      </c>
+      <c r="F73">
+        <v>0.03778656307331524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09291089448300849</v>
+        <v>0.09484848548302341</v>
       </c>
       <c r="C74">
-        <v>-0.01220615128147893</v>
+        <v>0.01331241967604009</v>
       </c>
       <c r="D74">
-        <v>-0.03446370968950897</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01690566689131464</v>
+      </c>
+      <c r="E74">
+        <v>0.04401697504447482</v>
+      </c>
+      <c r="F74">
+        <v>0.05837641511369084</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1354316506079089</v>
+        <v>0.1275644019774949</v>
       </c>
       <c r="C75">
-        <v>-0.0278046905227353</v>
+        <v>0.028193117355571</v>
       </c>
       <c r="D75">
-        <v>-0.04512489106705067</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03052682604271143</v>
+      </c>
+      <c r="E75">
+        <v>0.05788512539973905</v>
+      </c>
+      <c r="F75">
+        <v>0.02328573210002161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07165554953606876</v>
+        <v>0.08881490367623354</v>
       </c>
       <c r="C77">
-        <v>-0.01664873262845336</v>
+        <v>0.007956305150448127</v>
       </c>
       <c r="D77">
-        <v>-0.09364746018847768</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1129940064188817</v>
+      </c>
+      <c r="E77">
+        <v>0.04173727167459757</v>
+      </c>
+      <c r="F77">
+        <v>0.03417679967195816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1069259310198421</v>
+        <v>0.1012516217702302</v>
       </c>
       <c r="C78">
-        <v>-0.04785306247533651</v>
+        <v>0.03959455962782273</v>
       </c>
       <c r="D78">
-        <v>-0.1001672335922495</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1130412882043644</v>
+      </c>
+      <c r="E78">
+        <v>0.07520781749354133</v>
+      </c>
+      <c r="F78">
+        <v>0.04921055696113315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1647111197501618</v>
+        <v>0.1636059521335232</v>
       </c>
       <c r="C79">
-        <v>-0.02200048591339245</v>
+        <v>0.02289322489877363</v>
       </c>
       <c r="D79">
-        <v>-0.0179519774600916</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01460069141916014</v>
+      </c>
+      <c r="E79">
+        <v>0.04600416838746952</v>
+      </c>
+      <c r="F79">
+        <v>0.01287926997109876</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.09001663175638462</v>
+        <v>0.08213335218045228</v>
       </c>
       <c r="C80">
-        <v>-0.001554109961362285</v>
+        <v>-0.001099231757696079</v>
       </c>
       <c r="D80">
-        <v>-0.05338146458892386</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05646177609412017</v>
+      </c>
+      <c r="E80">
+        <v>0.03581956474868003</v>
+      </c>
+      <c r="F80">
+        <v>-0.0215644435172745</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1219322842493046</v>
+        <v>0.1187257129612651</v>
       </c>
       <c r="C81">
-        <v>-0.02967471505931929</v>
+        <v>0.03181883209260958</v>
       </c>
       <c r="D81">
-        <v>-0.04765988921899747</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01546789987088831</v>
+      </c>
+      <c r="E81">
+        <v>0.05661545503880718</v>
+      </c>
+      <c r="F81">
+        <v>0.01926938261443589</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1644600434962918</v>
+        <v>0.1652807172813953</v>
       </c>
       <c r="C82">
-        <v>-0.02180388414748722</v>
+        <v>0.02478599066814677</v>
       </c>
       <c r="D82">
-        <v>-0.03385405614705815</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00428694641198558</v>
+      </c>
+      <c r="E82">
+        <v>0.02606892996192822</v>
+      </c>
+      <c r="F82">
+        <v>0.08227333674911454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07130988393215186</v>
+        <v>0.05845891476556368</v>
       </c>
       <c r="C83">
-        <v>-0.006156144659891654</v>
+        <v>0.002629012033575394</v>
       </c>
       <c r="D83">
-        <v>-0.03129717991506546</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05129258494088506</v>
+      </c>
+      <c r="E83">
+        <v>0.00329949111711825</v>
+      </c>
+      <c r="F83">
+        <v>-0.0300977909090721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0671563901819906</v>
+        <v>0.059660731873518</v>
       </c>
       <c r="C84">
-        <v>-0.01548511979618583</v>
+        <v>0.01121184414591433</v>
       </c>
       <c r="D84">
-        <v>-0.05532042041063417</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06299980993236459</v>
+      </c>
+      <c r="E84">
+        <v>0.007098643193844392</v>
+      </c>
+      <c r="F84">
+        <v>0.005776894393058012</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1384417316431351</v>
+        <v>0.1355466369988428</v>
       </c>
       <c r="C85">
-        <v>-0.02689982855603013</v>
+        <v>0.02817245443444968</v>
       </c>
       <c r="D85">
-        <v>-0.02391874583426503</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009470558535664055</v>
+      </c>
+      <c r="E85">
+        <v>0.03616499860704092</v>
+      </c>
+      <c r="F85">
+        <v>0.04834253444803224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09948955002827534</v>
+        <v>0.09502910482018495</v>
       </c>
       <c r="C86">
-        <v>0.00149245355151349</v>
+        <v>-0.005450981276297877</v>
       </c>
       <c r="D86">
-        <v>0.03445918211351976</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04208135586766212</v>
+      </c>
+      <c r="E86">
+        <v>0.2301377197559315</v>
+      </c>
+      <c r="F86">
+        <v>-0.9039601027822626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09937739094372512</v>
+        <v>0.09405202415095214</v>
       </c>
       <c r="C87">
-        <v>-0.02946848268696508</v>
+        <v>0.01904655185606655</v>
       </c>
       <c r="D87">
-        <v>-0.05744291552325141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09381668472370808</v>
+      </c>
+      <c r="E87">
+        <v>-0.05413074113032531</v>
+      </c>
+      <c r="F87">
+        <v>0.04551643424803498</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05769918812799948</v>
+        <v>0.06064349724571906</v>
       </c>
       <c r="C88">
-        <v>-0.006276417274136414</v>
+        <v>0.002109081607281923</v>
       </c>
       <c r="D88">
-        <v>-0.04627611279504244</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0498782122193041</v>
+      </c>
+      <c r="E88">
+        <v>0.02443664686796307</v>
+      </c>
+      <c r="F88">
+        <v>0.01404538309272956</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1219223033571824</v>
+        <v>0.1300214876374189</v>
       </c>
       <c r="C89">
-        <v>0.003239075112897724</v>
+        <v>0.01368880956705384</v>
       </c>
       <c r="D89">
-        <v>0.2748728805966241</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2459519180016263</v>
+      </c>
+      <c r="E89">
+        <v>-0.08873906248804585</v>
+      </c>
+      <c r="F89">
+        <v>-0.009596983788296333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1365013584627552</v>
+        <v>0.1512878135205758</v>
       </c>
       <c r="C90">
-        <v>-0.01492617525580001</v>
+        <v>0.03418694792804554</v>
       </c>
       <c r="D90">
-        <v>0.2878726776157323</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2709995598023205</v>
+      </c>
+      <c r="E90">
+        <v>-0.113686845601379</v>
+      </c>
+      <c r="F90">
+        <v>-0.008320982494845407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1184242702650993</v>
+        <v>0.1212110592656028</v>
       </c>
       <c r="C91">
-        <v>-0.01690983940775092</v>
+        <v>0.01988224606948047</v>
       </c>
       <c r="D91">
-        <v>-0.002591301405287408</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01515725712557144</v>
+      </c>
+      <c r="E91">
+        <v>0.05530843960237382</v>
+      </c>
+      <c r="F91">
+        <v>0.0005904262950551682</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1473877621451341</v>
+        <v>0.1480120707641415</v>
       </c>
       <c r="C92">
-        <v>-0.003120165952756083</v>
+        <v>0.02484722948268142</v>
       </c>
       <c r="D92">
-        <v>0.3110881175940219</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2911588151643176</v>
+      </c>
+      <c r="E92">
+        <v>-0.1014065392608168</v>
+      </c>
+      <c r="F92">
+        <v>-0.0128712094733335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1403414369755524</v>
+        <v>0.1513754283972907</v>
       </c>
       <c r="C93">
-        <v>-0.01028700827920754</v>
+        <v>0.02926039519812221</v>
       </c>
       <c r="D93">
-        <v>0.2711542504837444</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2672646099994801</v>
+      </c>
+      <c r="E93">
+        <v>-0.0783743698162179</v>
+      </c>
+      <c r="F93">
+        <v>0.002650584016186728</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1335874822327461</v>
+        <v>0.1282449515349232</v>
       </c>
       <c r="C94">
-        <v>-0.02508165594267021</v>
+        <v>0.02452510685377214</v>
       </c>
       <c r="D94">
-        <v>-0.06057395861972366</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0418291717449699</v>
+      </c>
+      <c r="E94">
+        <v>0.05695961859823745</v>
+      </c>
+      <c r="F94">
+        <v>0.0370000654967216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1244535287190798</v>
+        <v>0.1262492065541032</v>
       </c>
       <c r="C95">
-        <v>-0.0109228565756527</v>
+        <v>0.003048105785920628</v>
       </c>
       <c r="D95">
-        <v>-0.0681680890651144</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09444615573268893</v>
+      </c>
+      <c r="E95">
+        <v>0.04941251325223586</v>
+      </c>
+      <c r="F95">
+        <v>-0.007068624663673838</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.105283166941677</v>
+        <v>0.1088281091751642</v>
       </c>
       <c r="C96">
-        <v>0.9889098554719179</v>
+        <v>-0.9870998439184491</v>
       </c>
       <c r="D96">
-        <v>-0.01516485531531577</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05197044984937665</v>
+      </c>
+      <c r="E96">
+        <v>0.05308030043102401</v>
+      </c>
+      <c r="F96">
+        <v>0.04257644248851277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1896356929930364</v>
+        <v>0.1906887571627887</v>
       </c>
       <c r="C97">
-        <v>0.008639000287125834</v>
+        <v>-0.007045012896286842</v>
       </c>
       <c r="D97">
-        <v>0.03097337293174659</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02052566186713713</v>
+      </c>
+      <c r="E97">
+        <v>0.02033126994629444</v>
+      </c>
+      <c r="F97">
+        <v>-0.09494964275284962</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1939604203363123</v>
+        <v>0.2057357756745166</v>
       </c>
       <c r="C98">
-        <v>-0.009338857861118838</v>
+        <v>0.006916674199740592</v>
       </c>
       <c r="D98">
-        <v>-0.0003250621006580035</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01306360159846457</v>
+      </c>
+      <c r="E98">
+        <v>-0.07756728908826191</v>
+      </c>
+      <c r="F98">
+        <v>-0.09299269460379969</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05528833626594201</v>
+        <v>0.05499936888184056</v>
       </c>
       <c r="C99">
-        <v>0.002201509691808257</v>
+        <v>-0.004507089385191405</v>
       </c>
       <c r="D99">
-        <v>-0.02208022755240119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03958801089652153</v>
+      </c>
+      <c r="E99">
+        <v>0.0224647773305153</v>
+      </c>
+      <c r="F99">
+        <v>0.003176950132581744</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1319060251101964</v>
+        <v>0.127627350640684</v>
       </c>
       <c r="C100">
-        <v>0.02864882389360506</v>
+        <v>-0.05377481659847314</v>
       </c>
       <c r="D100">
-        <v>-0.3899802634630947</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3469115701500298</v>
+      </c>
+      <c r="E100">
+        <v>-0.8855672400507447</v>
+      </c>
+      <c r="F100">
+        <v>-0.1582817267155599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02608059046661333</v>
+        <v>0.02868241721595663</v>
       </c>
       <c r="C101">
-        <v>-0.01017994795483535</v>
+        <v>0.008722972773839405</v>
       </c>
       <c r="D101">
-        <v>-0.016785402739811</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03076129483945504</v>
+      </c>
+      <c r="E101">
+        <v>0.01331522794202346</v>
+      </c>
+      <c r="F101">
+        <v>-0.01435429218915748</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
